--- a/src/assets/files/customer-upload.xlsx
+++ b/src/assets/files/customer-upload.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -137,16 +137,23 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -182,10 +189,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -482,67 +490,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="18.7265625" customWidth="1"/>
-    <col min="2" max="2" width="25.26953125" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" customWidth="1"/>
-    <col min="4" max="4" width="16.90625" customWidth="1"/>
-    <col min="5" max="5" width="19.26953125" customWidth="1"/>
-    <col min="6" max="6" width="14.54296875" customWidth="1"/>
-    <col min="8" max="8" width="14.7265625" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="13">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -592,13 +600,16 @@
       <c r="O2" t="s">
         <v>26</v>
       </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="B6" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="jegan@gmail"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/src/assets/files/customer-upload.xlsx
+++ b/src/assets/files/customer-upload.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>CUSTOMER NAME</t>
   </si>
@@ -66,56 +66,7 @@
     <t>GST NO</t>
   </si>
   <si>
-    <t>guru</t>
-  </si>
-  <si>
-    <t>jegan</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>jegan@gmail</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.com</t>
-    </r>
-  </si>
-  <si>
-    <t>chennai</t>
-  </si>
-  <si>
-    <t>karur</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>tamil nadu</t>
-  </si>
-  <si>
-    <t>namakkal</t>
-  </si>
-  <si>
-    <t>park</t>
-  </si>
-  <si>
-    <t>fdhsdgh5676</t>
-  </si>
-  <si>
-    <t>fdghff56758</t>
-  </si>
-  <si>
-    <t>fghdj567865</t>
+    <t>sample@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -129,15 +80,16 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="10"/>
-      <color theme="0"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -186,18 +138,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -492,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:O1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -508,105 +465,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" t="s">
+      <c r="D2" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B2">
-        <v>899</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2">
-        <v>9897867977</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2">
-        <v>678945</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="B6" s="2"/>
+      <c r="B6" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="jegan@gmail"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
